--- a/biology/Zoologie/Heliconius_himera/Heliconius_himera.xlsx
+++ b/biology/Zoologie/Heliconius_himera/Heliconius_himera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius himera est un insecte lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,11 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius himera a été décrit par William Chapman Hewitson en 1867 sous le nom initial d' Holiconia himera[1].
-Nom vernaculaire
-Heliconius himera se nomme Himera Longwing en anglais.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius himera a été décrit par William Chapman Hewitson en 1867 sous le nom initial d' Holiconia himera.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius himera se nomme Himera Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliconius_himera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_himera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliconius himera est un grand papillon noir au corps fin et aux longues ailes antérieures allongées à l'apex arrondi et au bord interne légèrement concave.
 Le dessus est de couleur noire, les ailes antérieure sont ornées d'une bande blanche à bords irréguliers partant du milieu du bord costal, les ailes postérieures sont ornées de rouge depuis l'aire basale jusqu'à la moitié du bord costal.
@@ -553,73 +604,45 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Heliconius_himera</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Heliconius_himera</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont deux Passiflora, Passiflora punctata et Passiflora rubra[2].
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont deux Passiflora, Passiflora punctata et Passiflora rubra.
 Sur les autres projets Wikimedia :
 Heliconius himera, sur Wikimedia CommonsHeliconius himera, sur Wikispecies
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Heliconius_himera</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Heliconius_himera</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heliconius himera est présent en Équateur et au Pérou[1],[3],[2].
-Biotope
-Heliconius himera réside en forêt sèche[2].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -641,10 +664,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius himera est présent en Équateur et au Pérou.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_himera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_himera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heliconius himera réside en forêt sèche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_himera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_himera</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
